--- a/data/Behavioral/description/CELF.xlsx
+++ b/data/Behavioral/description/CELF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="2300" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="9540" yWindow="460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -75,6 +75,53 @@
   </si>
   <si>
     <t>Clinical Evaluation of Language Fundamentals, Fifth Edition (CELF-5) Screener</t>
+  </si>
+  <si>
+    <t>CELF_Complete</t>
+  </si>
+  <si>
+    <t>CELF_Incomplete_Reason</t>
+  </si>
+  <si>
+    <t>CELF_Valid</t>
+  </si>
+  <si>
+    <t>CELF_Invalid_Reason</t>
+  </si>
+  <si>
+    <t>Was CELF screener completed?</t>
+  </si>
+  <si>
+    <t>If CELF was not completed, for what reason?</t>
+  </si>
+  <si>
+    <t>0=Incomplete, 1=Complete</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Dropped HBN, 
+Lost to Follow Up, 
+Other Reason</t>
+  </si>
+  <si>
+    <t>Was administration of CELF screener valid?</t>
+  </si>
+  <si>
+    <t>If invalid, for what reason?</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0=Did not follow rules
+1=Behavioral issues
+2=Already tested
+3=Other</t>
+  </si>
+  <si>
+    <t>0=Invalid, 1=Valid</t>
   </si>
 </sst>
 </file>
@@ -143,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,6 +213,13 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -185,17 +239,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -543,83 +609,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="74.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
